--- a/Cálculo Grupo C.xlsx
+++ b/Cálculo Grupo C.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -590,13 +590,13 @@
         <v>12.27406624778286</v>
       </c>
       <c r="R2" t="n">
-        <v>13.2434320468055</v>
+        <v>15.8921184561666</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27554986206817</v>
+        <v>43.56295821839014</v>
       </c>
       <c r="T2" t="n">
-        <v>37.75456378927145</v>
+        <v>31.46213649105955</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo C.xlsx
+++ b/Cálculo Grupo C.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.447087158721879</v>
+        <v>2.659262653821207</v>
       </c>
       <c r="I2" t="n">
         <v>224</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>201.0598071618007</v>
+        <v>180.414568960068</v>
       </c>
       <c r="O2" t="n">
-        <v>261.3777493103408</v>
+        <v>234.5389396480883</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.27406624778286</v>
+        <v>10.39357298709411</v>
       </c>
       <c r="R2" t="n">
-        <v>15.8921184561666</v>
+        <v>13.77498011893806</v>
       </c>
       <c r="S2" t="n">
-        <v>43.56295821839014</v>
+        <v>39.08982327468139</v>
       </c>
       <c r="T2" t="n">
-        <v>31.46213649105955</v>
+        <v>36.29769304077557</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo C.xlsx
+++ b/Cálculo Grupo C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Personas por viaje</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Paradas Probables</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>C (&gt;12)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>I (&lt;40)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de llenado</t>
         </is>
@@ -560,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.659262653821207</v>
+        <v>2.541435334301307</v>
       </c>
       <c r="I2" t="n">
         <v>224</v>
@@ -572,31 +577,34 @@
         <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>180.414568960068</v>
+        <v>184.4043822126624</v>
       </c>
       <c r="O2" t="n">
-        <v>234.5389396480883</v>
+        <v>239.7256968764611</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.39357298709411</v>
+        <v>16</v>
       </c>
       <c r="R2" t="n">
-        <v>13.77498011893806</v>
+        <v>11.3796580381806</v>
       </c>
       <c r="S2" t="n">
-        <v>39.08982327468139</v>
+        <v>15.40221903791342</v>
       </c>
       <c r="T2" t="n">
-        <v>36.29769304077557</v>
+        <v>39.95428281274352</v>
+      </c>
+      <c r="U2" t="n">
+        <v>32.46285478535411</v>
       </c>
     </row>
   </sheetData>
